--- a/N2-List.xlsx
+++ b/N2-List.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT-repo\Own\JPN3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="grammar" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="from internet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Day (1)</t>
   </si>
@@ -797,16 +802,207 @@
   <si>
     <t>１．</t>
   </si>
+  <si>
+    <t>たね</t>
+  </si>
+  <si>
+    <t>収集</t>
+  </si>
+  <si>
+    <t>しゅうしゅう</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.jlpt.jp/e/samples/n2/index.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>場面</t>
+    <rPh sb="0" eb="2">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ばめん</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>寿命</t>
+    <rPh sb="0" eb="2">
+      <t>ジュミョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>じゅみょう</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>lifespan</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ただの</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>eg. ただの友達</t>
+    <rPh sb="7" eb="9">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>just friend</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>余計な</t>
+    <rPh sb="0" eb="2">
+      <t>ヨケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>よけいな</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>複雑</t>
+    <rPh sb="0" eb="2">
+      <t>フクザツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ふくざつ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>complexity</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>得手</t>
+    <rPh sb="0" eb="2">
+      <t>エテ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>えて</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>strong point</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不得手</t>
+    <rPh sb="0" eb="3">
+      <t>フエテ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ふえて</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>weak point</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>得意</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>とくい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>one's strong point</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>逃げる</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>にげる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>評価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ひょうか</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>筆者</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ひっしゃ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,6 +1026,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -848,10 +1059,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -870,8 +1082,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,6 +1093,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -927,7 +1144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +1179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1173,18 +1390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -1218,7 +1435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -1235,7 +1452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1269,7 +1486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -1286,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -1303,11 +1520,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1324,11 +1541,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
@@ -1362,7 +1579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1379,7 +1596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
@@ -1396,7 +1613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>79</v>
       </c>
@@ -1413,7 +1630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
@@ -1430,12 +1647,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>174</v>
       </c>
@@ -1469,7 +1686,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>175</v>
       </c>
@@ -1486,7 +1703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>176</v>
       </c>
@@ -1503,7 +1720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>177</v>
       </c>
@@ -1520,7 +1737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>178</v>
       </c>
@@ -1537,7 +1754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>179</v>
       </c>
@@ -1554,7 +1771,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1571,10 +1788,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>119</v>
       </c>
@@ -1591,7 +1808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>124</v>
       </c>
@@ -1608,7 +1825,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>129</v>
       </c>
@@ -1625,7 +1842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>134</v>
       </c>
@@ -1642,7 +1859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>139</v>
       </c>
@@ -1659,7 +1876,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>144</v>
       </c>
@@ -1676,7 +1893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
@@ -1685,7 +1902,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
@@ -1719,7 +1936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -1736,7 +1953,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>99</v>
       </c>
@@ -1753,7 +1970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>104</v>
       </c>
@@ -1770,7 +1987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>109</v>
       </c>
@@ -1787,7 +2004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
@@ -1804,7 +2021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +2038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>180</v>
       </c>
@@ -1838,7 +2055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>185</v>
       </c>
@@ -1855,7 +2072,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>190</v>
       </c>
@@ -1872,7 +2089,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>195</v>
       </c>
@@ -1889,7 +2106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>200</v>
       </c>
@@ -1906,7 +2123,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>205</v>
       </c>
@@ -1923,94 +2140,95 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2024,29 +2242,186 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/N2-List.xlsx
+++ b/N2-List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Day (1)</t>
   </si>
@@ -991,6 +991,21 @@
   </si>
   <si>
     <t>Author</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単なる</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>たんなる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mere, simple</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2260,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2414,6 +2429,17 @@
       </c>
       <c r="C15" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/N2-List.xlsx
+++ b/N2-List.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="grammar" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="from internet" sheetId="3" r:id="rId3"/>
+    <sheet name="opposite" sheetId="4" r:id="rId3"/>
+    <sheet name="adjectives" sheetId="5" r:id="rId4"/>
+    <sheet name="from internet" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="611">
   <si>
     <t>Day (1)</t>
   </si>
@@ -1008,12 +1010,1932 @@
     <t>mere, simple</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <t>長い　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ながい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　nagai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　long</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　たかい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>takai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　expensive/high</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　やすい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　yasui</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cheap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>低い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　ひくい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>hikui</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>low</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>太い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　ふとい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>futoi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thick/fat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>狭い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　せまい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>semai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>narrow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>軽い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　かるい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>karui</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>light (not heavy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>強い　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>つよい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>tsuyoi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>strong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>弱い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　よわい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>yowai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>weak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>短い　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>みじかい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>mijikai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>short</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>細い　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ほそい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>hosoi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thin/fine</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>広い　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ひろい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>hiroi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> wide/spacious</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>重い　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800080"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>おもい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>omoi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> heavy</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>明るい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (akarui) bright</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>暗い</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (kurai) dark</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新しい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (atarashii)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> new</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古い (furui) old</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>速い</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (hayai)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> fast</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>遅い (osoi) slow</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大きい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ookii) big</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小さい (chiisai) small</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Japanese Vocabulary for i-Adjectives</t>
+  </si>
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>Hiragana</t>
+  </si>
+  <si>
+    <t>Romaji</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>atarashii</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>furui</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>厚い</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>atsui</t>
+  </si>
+  <si>
+    <t>Thick (books)</t>
+  </si>
+  <si>
+    <t>薄い</t>
+  </si>
+  <si>
+    <t>うすい</t>
+  </si>
+  <si>
+    <t>usui</t>
+  </si>
+  <si>
+    <t>Thin</t>
+  </si>
+  <si>
+    <t>暑い</t>
+  </si>
+  <si>
+    <t>Hot (weather)</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>samui</t>
+  </si>
+  <si>
+    <t>Cold / Chilly (weather)</t>
+  </si>
+  <si>
+    <t>暖かい</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>atatakai</t>
+  </si>
+  <si>
+    <t>Warm (weather)</t>
+  </si>
+  <si>
+    <t>涼しい</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>suzushii</t>
+  </si>
+  <si>
+    <t>Cool (weather)</t>
+  </si>
+  <si>
+    <t>熱い</t>
+  </si>
+  <si>
+    <t>Hot (drink)</t>
+  </si>
+  <si>
+    <t>冷たい</t>
+  </si>
+  <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>tsumetai</t>
+  </si>
+  <si>
+    <t>Cold (drink)</t>
+  </si>
+  <si>
+    <t>温かい</t>
+  </si>
+  <si>
+    <t>Warm (drink)</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>ookii</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>ちいさい</t>
+  </si>
+  <si>
+    <t>chiisai</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>重い</t>
+  </si>
+  <si>
+    <t>おもい</t>
+  </si>
+  <si>
+    <t>omoi</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>karui</t>
+  </si>
+  <si>
+    <t>Light (weight)</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>omoshiroi</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>詰まらない</t>
+  </si>
+  <si>
+    <t>つまらない</t>
+  </si>
+  <si>
+    <t>tsumaranai</t>
+  </si>
+  <si>
+    <t>Dull / Boring</t>
+  </si>
+  <si>
+    <t>広い</t>
+  </si>
+  <si>
+    <t>ひろい</t>
+  </si>
+  <si>
+    <t>hiroi</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>狭い</t>
+  </si>
+  <si>
+    <t>せまい</t>
+  </si>
+  <si>
+    <t>semai</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>takai</t>
+  </si>
+  <si>
+    <t>High / Tall (height)</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>hikui</t>
+  </si>
+  <si>
+    <t>Low / Short (height)</t>
+  </si>
+  <si>
+    <t>Expensive</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>yasui</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>nagai</t>
+  </si>
+  <si>
+    <t>Long (length)</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>mijikai</t>
+  </si>
+  <si>
+    <t>Short (length)</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>ふとい</t>
+  </si>
+  <si>
+    <t>futoi</t>
+  </si>
+  <si>
+    <t>Fat/Thick</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>ほそい</t>
+  </si>
+  <si>
+    <t>hosoi</t>
+  </si>
+  <si>
+    <t>Thin / Slender / Narrow</t>
+  </si>
+  <si>
+    <t>美味しい</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>oishii</t>
+  </si>
+  <si>
+    <t>Tasty</t>
+  </si>
+  <si>
+    <t>不味い</t>
+  </si>
+  <si>
+    <t>まずい</t>
+  </si>
+  <si>
+    <t>mazui</t>
+  </si>
+  <si>
+    <t>Unappetizing / Tasteless</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>muzukashii</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>易しい</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>yasashii</t>
+  </si>
+  <si>
+    <t>Easy / Simple</t>
+  </si>
+  <si>
+    <t>良い</t>
+  </si>
+  <si>
+    <t>いい / よい</t>
+  </si>
+  <si>
+    <t>ii / yoi</t>
+  </si>
+  <si>
+    <t>Good / Nice / OK / Prefer</t>
+  </si>
+  <si>
+    <t>悪い</t>
+  </si>
+  <si>
+    <t>わるい</t>
+  </si>
+  <si>
+    <t>warui</t>
+  </si>
+  <si>
+    <t>Bad / Wicked</t>
+  </si>
+  <si>
+    <t>可愛い</t>
+  </si>
+  <si>
+    <t>かわいい</t>
+  </si>
+  <si>
+    <t>kawaii</t>
+  </si>
+  <si>
+    <t>Cute / Pretty</t>
+  </si>
+  <si>
+    <t>赤い</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>akai</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>青い</t>
+  </si>
+  <si>
+    <t>あおい</t>
+  </si>
+  <si>
+    <t>aoi</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>白い</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>shiroi</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>黒い</t>
+  </si>
+  <si>
+    <t>くろい</t>
+  </si>
+  <si>
+    <t>kuroi</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>丸い</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>marui</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>amai</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>karai</t>
+  </si>
+  <si>
+    <t>Hot / Spicy (taste)</t>
+  </si>
+  <si>
+    <t>固い</t>
+  </si>
+  <si>
+    <t>かたい</t>
+  </si>
+  <si>
+    <t>katai</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>柔らかい</t>
+  </si>
+  <si>
+    <t>やわらかい</t>
+  </si>
+  <si>
+    <t>yawarakai</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>近い</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>chikai</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>tooi</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>早い</t>
+  </si>
+  <si>
+    <t>はやい</t>
+  </si>
+  <si>
+    <t>hayai</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>Fast / Quick</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>osoi</t>
+  </si>
+  <si>
+    <t>Late / Slow</t>
+  </si>
+  <si>
+    <t>明るい</t>
+  </si>
+  <si>
+    <t>あかるい</t>
+  </si>
+  <si>
+    <t>akarui</t>
+  </si>
+  <si>
+    <t>Bright / Light</t>
+  </si>
+  <si>
+    <t>暗い</t>
+  </si>
+  <si>
+    <t>くらい</t>
+  </si>
+  <si>
+    <t>kurai</t>
+  </si>
+  <si>
+    <t>Dark / Gloomy</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>いそがしい</t>
+  </si>
+  <si>
+    <t>isogashii</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>tanoshii</t>
+  </si>
+  <si>
+    <t>Enjoyable / Fun</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>ooi</t>
+  </si>
+  <si>
+    <t>Many / Plenty</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>sukunai</t>
+  </si>
+  <si>
+    <t>Few / Little</t>
+  </si>
+  <si>
+    <t>汚い</t>
+  </si>
+  <si>
+    <t>きたない</t>
+  </si>
+  <si>
+    <t>kitanai</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>ねむい</t>
+  </si>
+  <si>
+    <t>nemui</t>
+  </si>
+  <si>
+    <t>Sleepy</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>わかい</t>
+  </si>
+  <si>
+    <t>wakai</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>強い</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>tsuyoi</t>
+  </si>
+  <si>
+    <t>Strong / Tough</t>
+  </si>
+  <si>
+    <t>弱い</t>
+  </si>
+  <si>
+    <t>よわい</t>
+  </si>
+  <si>
+    <t>yowai</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>痛い</t>
+  </si>
+  <si>
+    <t>いたい</t>
+  </si>
+  <si>
+    <t>itai</t>
+  </si>
+  <si>
+    <t>Painful</t>
+  </si>
+  <si>
+    <t>危ない</t>
+  </si>
+  <si>
+    <t>あぶない</t>
+  </si>
+  <si>
+    <t>abunai</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>正しい</t>
+  </si>
+  <si>
+    <t>ただしい</t>
+  </si>
+  <si>
+    <t>tadashii</t>
+  </si>
+  <si>
+    <t>Correct / Right</t>
+  </si>
+  <si>
+    <t>賑やか</t>
+  </si>
+  <si>
+    <t>にぎやか</t>
+  </si>
+  <si>
+    <t>nigiyaka</t>
+  </si>
+  <si>
+    <t>Lively / Bustling / Busy</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>shizuka</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>奇麗</t>
+  </si>
+  <si>
+    <t>きれい (*)</t>
+  </si>
+  <si>
+    <t>kirei</t>
+  </si>
+  <si>
+    <t>Beautiful / Clean</t>
+  </si>
+  <si>
+    <t>好き</t>
+  </si>
+  <si>
+    <t>すき</t>
+  </si>
+  <si>
+    <t>suki</t>
+  </si>
+  <si>
+    <t>Like / Love / Favorite</t>
+  </si>
+  <si>
+    <t>嫌い</t>
+  </si>
+  <si>
+    <t>きらい (*)</t>
+  </si>
+  <si>
+    <t>kirai</t>
+  </si>
+  <si>
+    <t>Dislike / Hate / Least Favorite</t>
+  </si>
+  <si>
+    <t>丈夫</t>
+  </si>
+  <si>
+    <t>じょうぶ</t>
+  </si>
+  <si>
+    <t>joubu</t>
+  </si>
+  <si>
+    <t>Strong / Robust / Healthy</t>
+  </si>
+  <si>
+    <t>色々</t>
+  </si>
+  <si>
+    <t>いろいろ</t>
+  </si>
+  <si>
+    <t>iroiro</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>親切</t>
+  </si>
+  <si>
+    <t>しんせつ</t>
+  </si>
+  <si>
+    <t>shinsetsu</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>元気</t>
+  </si>
+  <si>
+    <t>げんき</t>
+  </si>
+  <si>
+    <t>genki</t>
+  </si>
+  <si>
+    <t>Healthy / Vigorous / Energetic</t>
+  </si>
+  <si>
+    <t>便利</t>
+  </si>
+  <si>
+    <t>べんり</t>
+  </si>
+  <si>
+    <t>benri</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>簡単</t>
+  </si>
+  <si>
+    <t>かんたん</t>
+  </si>
+  <si>
+    <t>kantan</t>
+  </si>
+  <si>
+    <t>Simple / Easy</t>
+  </si>
+  <si>
+    <t>複雑</t>
+  </si>
+  <si>
+    <t>ふくざつ</t>
+  </si>
+  <si>
+    <t>fukuzatsu</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>暇</t>
+  </si>
+  <si>
+    <t>ひま</t>
+  </si>
+  <si>
+    <t>hima</t>
+  </si>
+  <si>
+    <t>Free (time)</t>
+  </si>
+  <si>
+    <t>上手</t>
+  </si>
+  <si>
+    <t>じょうず</t>
+  </si>
+  <si>
+    <t>jouzu</t>
+  </si>
+  <si>
+    <t>Skillfull / Good at</t>
+  </si>
+  <si>
+    <t>下手</t>
+  </si>
+  <si>
+    <t>へた</t>
+  </si>
+  <si>
+    <t>heta</t>
+  </si>
+  <si>
+    <t>Unskillful / Poor at</t>
+  </si>
+  <si>
+    <t>新鮮</t>
+  </si>
+  <si>
+    <t>しんせん</t>
+  </si>
+  <si>
+    <t>shinsen</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>素敵</t>
+  </si>
+  <si>
+    <t>すてき</t>
+  </si>
+  <si>
+    <t>suteki</t>
+  </si>
+  <si>
+    <t>Wonderful / Lovely / Cool</t>
+  </si>
+  <si>
+    <t>大丈夫</t>
+  </si>
+  <si>
+    <t>だいじょうぶ</t>
+  </si>
+  <si>
+    <t>daijoubu</t>
+  </si>
+  <si>
+    <t>All Right / No Problem</t>
+  </si>
+  <si>
+    <t>丁寧</t>
+  </si>
+  <si>
+    <t>ていねい</t>
+  </si>
+  <si>
+    <t>teinei</t>
+  </si>
+  <si>
+    <t>Polite</t>
+  </si>
+  <si>
+    <t>有名</t>
+  </si>
+  <si>
+    <t>ゆうめい (*)</t>
+  </si>
+  <si>
+    <t>yuumei</t>
+  </si>
+  <si>
+    <t>Famous</t>
+  </si>
+  <si>
+    <t>変</t>
+  </si>
+  <si>
+    <t>へん</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>Strange / Odd</t>
+  </si>
+  <si>
+    <t>残念</t>
+  </si>
+  <si>
+    <t>ざんねん</t>
+  </si>
+  <si>
+    <t>zannen</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>あんぜん</t>
+  </si>
+  <si>
+    <t>anzen</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>Japanese Vocabulary for na-Adjectives</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Regrettable / Sorry / Pity</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,13 +2978,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF6600"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1078,7 +3093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1098,6 +3113,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2275,9 +4303,1576 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="64.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="153.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="11">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="11">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="11">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="11">
+        <v>12</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="11">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="11">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="11">
+        <v>16</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="11">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="11">
+        <v>18</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="11">
+        <v>19</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="11">
+        <v>20</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="11">
+        <v>21</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" s="11">
+        <v>22</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" s="11">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
